--- a/4-1 labs.xlsx
+++ b/4-1 labs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDC2F22-E183-4027-B0D0-33A2C65420F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50832F3-BC68-44C4-B6F9-7675E5678624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Предметы</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Защита</t>
+  </si>
+  <si>
+    <t>Конец (Проект)</t>
   </si>
 </sst>
 </file>
@@ -116,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,12 +135,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,22 +273,22 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -577,12 +574,13 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
     <col min="17" max="17" width="13.33203125" customWidth="1"/>
     <col min="18" max="18" width="10.77734375" customWidth="1"/>
   </cols>
@@ -647,7 +645,7 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -671,7 +669,7 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -694,7 +692,7 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -704,10 +702,10 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="7"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -721,7 +719,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="27" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="7"/>
@@ -739,7 +737,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="26" t="s">
         <v>4</v>
       </c>
     </row>
@@ -748,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="23"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="15"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -777,7 +775,7 @@
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="19"/>

--- a/4-1 labs.xlsx
+++ b/4-1 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50832F3-BC68-44C4-B6F9-7675E5678624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47A5048-935E-4A15-83E9-D29AE2F3669D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Предметы</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Конец (Проект)</t>
+  </si>
+  <si>
+    <t>5.1(5.2сдать)</t>
   </si>
 </sst>
 </file>
@@ -140,13 +143,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,22 +276,20 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -574,12 +575,13 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="13" max="13" width="15.5546875" customWidth="1"/>
     <col min="17" max="17" width="13.33203125" customWidth="1"/>
     <col min="18" max="18" width="10.77734375" customWidth="1"/>
@@ -645,11 +647,13 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="23" t="s">
+        <v>15</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="4"/>
@@ -669,8 +673,8 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -703,7 +707,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="26" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="8"/>
@@ -719,7 +723,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="25" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="7"/>
@@ -730,14 +734,14 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="24" t="s">
         <v>4</v>
       </c>
     </row>
@@ -775,7 +779,7 @@
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="19"/>

--- a/4-1 labs.xlsx
+++ b/4-1 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47A5048-935E-4A15-83E9-D29AE2F3669D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0276BFC-22C3-4029-832B-83C3CE781CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Предметы</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>5.1(5.2сдать)</t>
+  </si>
+  <si>
+    <t>Субб.</t>
+  </si>
+  <si>
+    <t>Ср.</t>
+  </si>
+  <si>
+    <t>Вт.</t>
   </si>
 </sst>
 </file>
@@ -143,13 +152,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,9 +266,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -288,10 +294,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +587,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,11 +659,11 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="4"/>
@@ -673,14 +685,16 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="16"/>
+      <c r="I3" s="15"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -696,9 +710,13 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -707,7 +725,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="25" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="8"/>
@@ -723,7 +741,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="7"/>
@@ -734,24 +752,26 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="27" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="15"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -764,27 +784,27 @@
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="24" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="19"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4-1 labs.xlsx
+++ b/4-1 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0276BFC-22C3-4029-832B-83C3CE781CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53147F6D-2343-4DB9-9757-CF12C2A930BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,12 +152,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -229,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,9 +253,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -294,16 +285,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,7 +578,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,7 +642,7 @@
       <c r="Q1" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -659,16 +650,16 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="5"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -685,8 +676,8 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
@@ -694,7 +685,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="15"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -710,7 +701,7 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
@@ -725,7 +716,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="24" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="8"/>
@@ -741,7 +732,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="7"/>
@@ -752,8 +743,8 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="10"/>
@@ -761,17 +752,17 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="28"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -784,27 +775,27 @@
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="23" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4-1 labs.xlsx
+++ b/4-1 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53147F6D-2343-4DB9-9757-CF12C2A930BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FD8C13-D8C8-4BA2-91C6-5F762007346F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Предметы</t>
   </si>
@@ -45,9 +45,6 @@
     <t>ВС</t>
   </si>
   <si>
-    <t>17(проект)</t>
-  </si>
-  <si>
     <t>ПМС</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
   </si>
   <si>
     <t>Субб.</t>
-  </si>
-  <si>
-    <t>Ср.</t>
   </si>
   <si>
     <t>Вт.</t>
@@ -223,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,14 +243,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -294,6 +282,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,7 +569,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,7 +577,7 @@
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="13" max="13" width="15.5546875" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" customWidth="1"/>
     <col min="18" max="18" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -642,24 +633,22 @@
       <c r="Q1" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="13" t="s">
-        <v>6</v>
-      </c>
+      <c r="R1" s="27"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="21" t="s">
-        <v>15</v>
+      <c r="F2" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="21"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="5"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -667,25 +656,25 @@
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="12" t="s">
+      <c r="Q2" s="21" t="s">
         <v>2</v>
       </c>
+      <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="14"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -693,21 +682,17 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="12" t="s">
-        <v>12</v>
+      <c r="Q3" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -716,8 +701,8 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="24" t="s">
-        <v>14</v>
+      <c r="M4" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N4" s="8"/>
     </row>
@@ -732,7 +717,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="21" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="7"/>
@@ -743,59 +728,59 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="25" t="s">
-        <v>16</v>
+      <c r="B6" s="25"/>
+      <c r="C6" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>9</v>
+      <c r="A7" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="26"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="17"/>
+      <c r="A9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4-1 labs.xlsx
+++ b/4-1 labs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FD8C13-D8C8-4BA2-91C6-5F762007346F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D47119E-55E1-40A7-927A-61DE7B01D536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="348" windowWidth="15660" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,12 +144,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -217,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -274,9 +268,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -569,7 +560,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,7 +624,7 @@
       <c r="Q1" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="27"/>
+      <c r="R1" s="26"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -647,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="26"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="19"/>
       <c r="J2" s="5"/>
       <c r="K2" s="10"/>
@@ -728,7 +719,7 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="23" t="s">
         <v>15</v>
       </c>
@@ -747,7 +738,7 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="24"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>

--- a/4-1 labs.xlsx
+++ b/4-1 labs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D47119E-55E1-40A7-927A-61DE7B01D536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA346630-6860-44F5-8CD1-D610ACB16CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="348" windowWidth="15660" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="1220" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Предметы</t>
   </si>
@@ -69,13 +69,10 @@
     <t>Конец (Проект)</t>
   </si>
   <si>
-    <t>5.1(5.2сдать)</t>
-  </si>
-  <si>
-    <t>Субб.</t>
-  </si>
-  <si>
     <t>Вт.</t>
+  </si>
+  <si>
+    <t>2a(досд.)</t>
   </si>
 </sst>
 </file>
@@ -125,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +141,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -211,48 +214,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -264,18 +265,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,19 +564,19 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" customWidth="1"/>
-    <col min="17" max="17" width="12.77734375" customWidth="1"/>
-    <col min="18" max="18" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" customWidth="1"/>
+    <col min="17" max="17" width="12.81640625" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,48 +628,46 @@
       <c r="Q1" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="26"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R1" s="23"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="19"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="17"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="21" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="16"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="12"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -673,17 +675,17 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -692,12 +694,12 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="20" t="s">
         <v>13</v>
       </c>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -708,70 +710,68 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="20" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="20" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4-1 labs.xlsx
+++ b/4-1 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA346630-6860-44F5-8CD1-D610ACB16CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DA8C61-B7B0-476F-BFD7-F5C373AB4ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1220" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +147,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -214,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,6 +285,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,7 +573,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -686,8 +695,8 @@
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -703,8 +712,8 @@
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="9"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>

--- a/4-1 labs.xlsx
+++ b/4-1 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DA8C61-B7B0-476F-BFD7-F5C373AB4ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2E1AAB-4C8F-4D20-A8F1-E45664E40600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1220" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Предметы</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Конец (Проект)</t>
-  </si>
-  <si>
-    <t>Вт.</t>
   </si>
   <si>
     <t>2a(досд.)</t>
@@ -242,9 +239,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -288,6 +282,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,7 +570,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -637,20 +634,20 @@
       <c r="Q1" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="23"/>
+      <c r="R1" s="22"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="17"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="16"/>
       <c r="J2" s="5"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -658,25 +655,23 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="14"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -684,7 +679,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -692,18 +687,18 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="19" t="s">
         <v>13</v>
       </c>
       <c r="N4" s="8"/>
@@ -712,14 +707,14 @@
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="7"/>
@@ -730,31 +725,31 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="25" t="s">
-        <v>15</v>
+      <c r="B6" s="20"/>
+      <c r="C6" s="24" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -762,25 +757,25 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="14"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4-1 labs.xlsx
+++ b/4-1 labs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2E1AAB-4C8F-4D20-A8F1-E45664E40600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4722AF93-2176-42BB-9CE4-432713AAC920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1220" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Предметы</t>
   </si>
@@ -70,13 +70,31 @@
   </si>
   <si>
     <t>2a(досд.)</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>1b(А)</t>
+  </si>
+  <si>
+    <t>(А)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +136,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -146,7 +174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -268,7 +296,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -281,10 +308,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,7 +612,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -634,7 +676,7 @@
       <c r="Q1" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="22"/>
+      <c r="R1" s="21"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -642,13 +684,15 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="5"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="28"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -666,9 +710,13 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="10"/>
@@ -691,7 +739,9 @@
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="F4" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -708,10 +758,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="18" t="s">
@@ -725,14 +777,24 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="E6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="17" t="s">
         <v>4</v>
@@ -744,9 +806,11 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
       <c r="I7" s="9" t="s">
@@ -757,7 +821,9 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="14"/>
       <c r="D8" s="9" t="s">
         <v>12</v>
@@ -770,7 +836,9 @@
       <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="15"/>
       <c r="D9" s="17" t="s">
         <v>12</v>

--- a/4-1 labs.xlsx
+++ b/4-1 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4722AF93-2176-42BB-9CE4-432713AAC920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD97210-84F5-4CAE-8940-CD9648A31AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Предметы</t>
   </si>
@@ -84,10 +84,7 @@
     <t>3b</t>
   </si>
   <si>
-    <t>1b(А)</t>
-  </si>
-  <si>
-    <t>(А)</t>
+    <t>1b</t>
   </si>
 </sst>
 </file>
@@ -245,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,9 +298,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,7 +606,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -689,10 +683,8 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="28"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -710,13 +702,9 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>20</v>
-      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="10"/>
@@ -739,9 +727,7 @@
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="F4" s="16"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -758,10 +744,8 @@
         <v>1</v>
       </c>
       <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="24"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="4"/>
@@ -777,22 +761,22 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="25" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="2"/>
@@ -806,10 +790,8 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="22"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
@@ -821,9 +803,7 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="B8" s="28"/>
       <c r="C8" s="14"/>
       <c r="D8" s="9" t="s">
         <v>12</v>
@@ -836,9 +816,7 @@
       <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="B9" s="26"/>
       <c r="C9" s="15"/>
       <c r="D9" s="17" t="s">
         <v>12</v>

--- a/4-1 labs.xlsx
+++ b/4-1 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD97210-84F5-4CAE-8940-CD9648A31AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528F7E12-6A66-44F7-BA12-C00B4C7E96F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Предметы</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>АИСиWП курсач</t>
-  </si>
-  <si>
-    <t>Конец (прим.)</t>
   </si>
   <si>
     <t>Защита</t>
@@ -91,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +140,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -242,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,9 +296,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -323,6 +326,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,15 +616,15 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.36328125" customWidth="1"/>
     <col min="6" max="6" width="8.26953125" customWidth="1"/>
-    <col min="13" max="13" width="15.54296875" customWidth="1"/>
-    <col min="17" max="17" width="12.81640625" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" customWidth="1"/>
     <col min="18" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -670,7 +680,7 @@
       <c r="Q1" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="21"/>
+      <c r="R1" s="20"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -682,11 +692,11 @@
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="20"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="27"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="L2" s="31"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -702,9 +712,9 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="10"/>
@@ -712,12 +722,10 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="N3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="30"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -734,8 +742,8 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="19" t="s">
-        <v>13</v>
+      <c r="M4" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="N4" s="8"/>
     </row>
@@ -745,7 +753,7 @@
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="23"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="4"/>
@@ -761,23 +769,23 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>17</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>18</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="17" t="s">
@@ -792,7 +800,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
       <c r="I7" s="9" t="s">
@@ -803,10 +811,10 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="14"/>
       <c r="D8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
@@ -816,10 +824,10 @@
       <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="15"/>
       <c r="D9" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="13"/>
     </row>

--- a/4-1 labs.xlsx
+++ b/4-1 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528F7E12-6A66-44F7-BA12-C00B4C7E96F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F44C5C0-6CF5-46C1-B5B4-1008FE4B8F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Конец (Проект)</t>
   </si>
   <si>
-    <t>2a(досд.)</t>
-  </si>
-  <si>
     <t>1a</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>1b</t>
+  </si>
+  <si>
+    <t>2a</t>
   </si>
 </sst>
 </file>
@@ -150,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,12 +171,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -248,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,37 +296,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,7 +616,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -694,14 +694,14 @@
       <c r="G2" s="16"/>
       <c r="H2" s="19"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="26"/>
+      <c r="J2" s="25"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="2"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="18" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="R2" s="13"/>
@@ -714,18 +714,18 @@
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="4"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="4"/>
       <c r="I3" s="10"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="30"/>
+      <c r="Q3" s="29"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -753,7 +753,7 @@
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="22"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="4"/>
@@ -769,26 +769,26 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>17</v>
-      </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -800,18 +800,18 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="9" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="18" t="s">
         <v>2</v>
       </c>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="14"/>
       <c r="D8" s="9" t="s">
         <v>11</v>
@@ -824,7 +824,7 @@
       <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="15"/>
       <c r="D9" s="17" t="s">
         <v>11</v>

--- a/4-1 labs.xlsx
+++ b/4-1 labs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F44C5C0-6CF5-46C1-B5B4-1008FE4B8F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF97BC8-5F60-4B21-BC37-36F50E0AEC53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Предметы</t>
   </si>
@@ -69,9 +69,6 @@
     <t>1a</t>
   </si>
   <si>
-    <t>2b</t>
-  </si>
-  <si>
     <t>3a</t>
   </si>
   <si>
@@ -82,13 +79,22 @@
   </si>
   <si>
     <t>2a</t>
+  </si>
+  <si>
+    <t>2b(А)</t>
+  </si>
+  <si>
+    <t>Зачет(А)</t>
+  </si>
+  <si>
+    <t>(А)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +155,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -242,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,9 +279,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -327,10 +336,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -616,7 +629,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H3" sqref="H3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,69 +693,73 @@
       <c r="Q1" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="20"/>
+      <c r="R1" s="19"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="2"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="29"/>
+      <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="N4" s="8"/>
@@ -751,14 +768,14 @@
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="17" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="7"/>
@@ -769,23 +786,23 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="G6" s="22" t="s">
         <v>15</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="9" t="s">
@@ -793,43 +810,43 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="18" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="33"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="13"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4-1 labs.xlsx
+++ b/4-1 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF97BC8-5F60-4B21-BC37-36F50E0AEC53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E31933E-B3D7-4E8D-815E-25505AF9A209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Предметы</t>
   </si>
@@ -81,13 +81,7 @@
     <t>2a</t>
   </si>
   <si>
-    <t>2b(А)</t>
-  </si>
-  <si>
-    <t>Зачет(А)</t>
-  </si>
-  <si>
-    <t>(А)</t>
+    <t>2b</t>
   </si>
 </sst>
 </file>
@@ -162,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +181,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -254,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,9 +311,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -340,10 +343,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,7 +638,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:J3"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -707,15 +716,15 @@
       <c r="G2" s="15"/>
       <c r="H2" s="18"/>
       <c r="I2" s="15"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="30" t="s">
-        <v>19</v>
+      <c r="J2" s="23"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="29" t="s">
+        <v>2</v>
       </c>
       <c r="R2" s="12"/>
     </row>
@@ -729,18 +738,16 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34" t="s">
-        <v>20</v>
-      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="28"/>
+      <c r="Q3" s="27"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -751,12 +758,10 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="32"/>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
       <c r="M4" s="17" t="s">
@@ -770,10 +775,10 @@
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="20"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="4"/>
       <c r="I5" s="17" t="s">
         <v>2</v>
@@ -786,28 +791,28 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="26" t="s">
         <v>4</v>
       </c>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
@@ -817,18 +822,18 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="15"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="31"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="13"/>
       <c r="D8" s="9" t="s">
         <v>11</v>
@@ -841,7 +846,7 @@
       <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="14"/>
       <c r="D9" s="16" t="s">
         <v>11</v>

--- a/4-1 labs.xlsx
+++ b/4-1 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E31933E-B3D7-4E8D-815E-25505AF9A209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF83365-0EAF-4644-970A-FFDF93391DB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,6 +353,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -638,7 +641,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -803,7 +806,7 @@
       <c r="E6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="21" t="s">

--- a/4-1 labs.xlsx
+++ b/4-1 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF83365-0EAF-4644-970A-FFDF93391DB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A6B204-FEFF-4623-9E42-C24277A747F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Предметы</t>
   </si>
   <si>
-    <t>АИСиWП</t>
-  </si>
-  <si>
     <t>Зачет</t>
   </si>
   <si>
@@ -42,18 +39,9 @@
     <t>Конец</t>
   </si>
   <si>
-    <t>ВС</t>
-  </si>
-  <si>
-    <t>ПМС</t>
-  </si>
-  <si>
     <t>СиТИОД</t>
   </si>
   <si>
-    <t>ОПиУП</t>
-  </si>
-  <si>
     <t>ПвI курсач</t>
   </si>
   <si>
@@ -82,6 +70,18 @@
   </si>
   <si>
     <t>2b</t>
+  </si>
+  <si>
+    <t>ОПиУП (next)</t>
+  </si>
+  <si>
+    <t>АИСиWП (this)</t>
+  </si>
+  <si>
+    <t>1. ВС</t>
+  </si>
+  <si>
+    <t>ПМС (this Fr)</t>
   </si>
 </sst>
 </file>
@@ -183,13 +183,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -270,9 +270,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -290,12 +287,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -323,9 +314,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,21 +331,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,7 +640,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,156 +704,156 @@
       <c r="Q1" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="19"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="37"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="27"/>
+      <c r="N3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="30"/>
+      <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="12"/>
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4-1 labs.xlsx
+++ b/4-1 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A6B204-FEFF-4623-9E42-C24277A747F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A16926-BD27-440D-B722-30EE7679A55F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Предметы</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Защита</t>
   </si>
   <si>
-    <t>Конец (Проект)</t>
-  </si>
-  <si>
     <t>1a</t>
   </si>
   <si>
@@ -75,13 +72,13 @@
     <t>ОПиУП (next)</t>
   </si>
   <si>
-    <t>АИСиWП (this)</t>
-  </si>
-  <si>
     <t>1. ВС</t>
   </si>
   <si>
-    <t>ПМС (this Fr)</t>
+    <t>2. ПМС</t>
+  </si>
+  <si>
+    <t>3. АИСиWП</t>
   </si>
 </sst>
 </file>
@@ -260,16 +257,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,9 +335,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,14 +631,14 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.36328125" customWidth="1"/>
     <col min="6" max="6" width="8.26953125" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="13" max="13" width="9.36328125" customWidth="1"/>
     <col min="17" max="17" width="8.90625" customWidth="1"/>
     <col min="18" max="18" width="10.81640625" customWidth="1"/>
   </cols>
@@ -704,156 +695,152 @@
       <c r="Q1" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="16"/>
+      <c r="R1" s="15"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="11"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="23"/>
+      <c r="Q3" s="22"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="21" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="30" t="s">
+      <c r="G6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="26"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="14" t="s">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="26"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="11"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="10"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="13" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4-1 labs.xlsx
+++ b/4-1 labs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A16926-BD27-440D-B722-30EE7679A55F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A76CB1-BED3-4882-8652-14104F4629EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Предметы</t>
   </si>
@@ -45,9 +45,6 @@
     <t>ПвI курсач</t>
   </si>
   <si>
-    <t>АИСиWП курсач</t>
-  </si>
-  <si>
     <t>Защита</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>2b</t>
   </si>
   <si>
-    <t>ОПиУП (next)</t>
-  </si>
-  <si>
     <t>1. ВС</t>
   </si>
   <si>
@@ -79,6 +73,15 @@
   </si>
   <si>
     <t>3. АИСиWП</t>
+  </si>
+  <si>
+    <t>4. АИСиWП курсач</t>
+  </si>
+  <si>
+    <t>Конец(4)</t>
+  </si>
+  <si>
+    <t>ОПиУП</t>
   </si>
 </sst>
 </file>
@@ -257,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,9 +287,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -299,9 +299,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,11 +340,14 @@
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,15 +628,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
     <col min="6" max="6" width="8.26953125" customWidth="1"/>
     <col min="13" max="13" width="9.36328125" customWidth="1"/>
     <col min="17" max="17" width="8.90625" customWidth="1"/>
@@ -695,11 +695,11 @@
       <c r="Q1" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="15"/>
+      <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -707,23 +707,23 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
-      <c r="H2" s="14"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="24" t="s">
+      <c r="J2" s="17"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -735,112 +735,112 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="22"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="27"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="24"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="21" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="29" t="s">
+      <c r="G7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="25"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="10"/>
-      <c r="I8" s="25"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="10"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="10"/>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="F10" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4-1 labs.xlsx
+++ b/4-1 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A76CB1-BED3-4882-8652-14104F4629EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA878727-10AA-4512-940D-62EDFB266E83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -287,9 +287,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,7 +342,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,7 +631,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -695,7 +695,7 @@
       <c r="Q1" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="14"/>
+      <c r="R1" s="13"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -707,16 +707,16 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
-      <c r="H2" s="13"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="R2" s="10"/>
@@ -735,10 +735,10 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="20"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -746,20 +746,20 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="25"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="22"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="33"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -772,11 +772,11 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
       <c r="N6" s="34" t="s">
         <v>3</v>
       </c>
@@ -785,25 +785,25 @@
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="5"/>
@@ -818,26 +818,26 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="12" t="s">
+      <c r="F8" s="27"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
       <c r="G9" s="10"/>
-      <c r="I9" s="23"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="F10" s="10"/>

--- a/4-1 labs.xlsx
+++ b/4-1 labs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA878727-10AA-4512-940D-62EDFB266E83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DB3461-84A5-46FB-A212-0BA67C5663BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,23 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Предметы</t>
   </si>
   <si>
-    <t>Зачет</t>
-  </si>
-  <si>
     <t>ПвI</t>
   </si>
   <si>
     <t>Конец</t>
   </si>
   <si>
-    <t>СиТИОД</t>
-  </si>
-  <si>
     <t>ПвI курсач</t>
   </si>
   <si>
@@ -81,7 +75,10 @@
     <t>Конец(4)</t>
   </si>
   <si>
-    <t>ОПиУП</t>
+    <t>5. ОПиУП</t>
+  </si>
+  <si>
+    <t>6. СиТИОД</t>
   </si>
 </sst>
 </file>
@@ -156,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,18 +180,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -230,46 +221,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -279,8 +241,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -296,13 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -328,24 +282,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -695,152 +641,148 @@
       <c r="Q1" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="13"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="20"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="19"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="21"/>
+        <v>12</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="16" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="34" t="s">
-        <v>3</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="22"/>
+      <c r="H8" s="13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="10"/>
-      <c r="I9" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="F10" s="10"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
